--- a/main/StructureDefinition-bc-organization-affiliation.xlsx
+++ b/main/StructureDefinition-bc-organization-affiliation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="233">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-rltn-2:One participating organization or one location allowed; not both. {participatingOrganization.count()=1 xor location.count()=1}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-rltn-2:One participating organization or one location allowed; not both. {participatingOrganization.count()=1 xor location.count()=1}</t>
   </si>
   <si>
     <t>Role</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>OrganizationAffiliation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -453,10 +470,6 @@
     <t>Tracking end reason.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>OrganizationAffiliation.extension:owner</t>
   </si>
   <si>
@@ -476,10 +489,6 @@
     <t>OrganizationAffiliation.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -487,9 +496,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -559,7 +565,15 @@
     <t>The period during which the participatingOrganization is affiliated with the primary organization.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>An affiliation may be created ahead of time and only be active for a defined period of time. Once the affiliation is complete, the fact that it existed may still be required.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
@@ -581,6 +595,13 @@
     <t>Organization where the role is available (primary organization/has members).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.scoper</t>
   </si>
   <si>
@@ -609,6 +630,9 @@
     <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined).</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.code</t>
   </si>
   <si>
@@ -622,6 +646,9 @@
     <t>Definition of the role the participatingOrganization plays in the association.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -703,6 +730,10 @@
     <t>Sometimes a participating organization provides dedicated contacts to handle enquiries specifically for the role provided to the affiliated organization.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
@@ -717,9 +748,6 @@
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for this role.</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1102,7 @@
     <col min="26" max="26" width="43.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.46875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1509,13 +1537,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -1523,10 +1551,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1549,16 +1577,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1608,7 +1636,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1617,13 +1645,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -1631,10 +1659,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1657,16 +1685,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1692,13 +1720,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1716,7 +1744,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -1725,13 +1753,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -1739,14 +1767,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1765,16 +1793,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1824,7 +1852,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1833,13 +1861,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -1847,14 +1875,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1873,16 +1901,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1932,7 +1960,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1947,7 +1975,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -1955,14 +1983,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1981,15 +2009,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2026,17 +2056,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2045,13 +2077,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2059,13 +2091,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -2087,13 +2119,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2144,7 +2176,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2153,10 +2185,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2167,13 +2199,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>74</v>
@@ -2195,13 +2227,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2252,7 +2284,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2261,10 +2293,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
@@ -2275,14 +2307,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2301,19 +2333,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2350,19 +2382,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2371,13 +2403,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2385,10 +2417,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2411,17 +2443,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -2470,7 +2502,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2479,24 +2511,24 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2519,70 +2551,70 @@
         <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2591,24 +2623,24 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2631,17 +2663,19 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2690,7 +2724,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2699,24 +2733,24 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2739,15 +2773,17 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2796,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2805,13 +2841,13 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -2819,10 +2855,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2845,15 +2881,17 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -2902,7 +2940,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2911,13 +2949,13 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -2925,10 +2963,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2951,15 +2989,17 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3008,7 +3048,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3017,13 +3057,13 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3031,10 +3071,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3057,15 +3097,17 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3090,13 +3132,13 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -3114,7 +3156,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3123,13 +3165,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3137,10 +3179,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3163,15 +3205,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3196,13 +3240,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3220,7 +3264,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3229,13 +3273,13 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3243,10 +3287,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3269,15 +3313,17 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3326,7 +3372,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3335,24 +3381,24 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3375,15 +3421,17 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3432,7 +3480,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3441,13 +3489,13 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3455,10 +3503,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3481,17 +3529,17 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3540,7 +3588,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3549,13 +3597,13 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3563,10 +3611,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3589,15 +3637,17 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3646,7 +3696,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3655,13 +3705,13 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>

--- a/main/StructureDefinition-bc-organization-affiliation.xlsx
+++ b/main/StructureDefinition-bc-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-organization-affiliation.xlsx
+++ b/main/StructureDefinition-bc-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-organization-affiliation.xlsx
+++ b/main/StructureDefinition-bc-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1074,17 +1074,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1093,24 +1093,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.0546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.68359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.46875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
